--- a/EC/Train Runs and Enforcements 2016-06-22.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2065,7 +2065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2294,33 +2294,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2366,6 +2346,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2682,7 +2683,7 @@
   <dimension ref="A1:CM172"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:O5"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,6 +3043,10 @@
       <c r="N11" s="82"/>
       <c r="O11" s="82"/>
       <c r="P11" s="82"/>
+      <c r="S11" s="92">
+        <f>AVERAGE(S13:S99999)</f>
+        <v>0.93838028169014087</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="10" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
@@ -17226,12 +17231,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:M153 A13:S13 A14:M150 A154:M158 N14:S158">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="8" priority="45">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S158">
-    <cfRule type="expression" dxfId="1" priority="44">
+    <cfRule type="expression" dxfId="7" priority="44">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21158,17 +21163,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="P6 M6:N6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N79">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22234,10 +22239,10 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:D3">
-    <cfRule type="expression" dxfId="5" priority="82">
+    <cfRule type="expression" dxfId="2" priority="82">
       <formula>$H133&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="83">
+    <cfRule type="expression" dxfId="1" priority="83">
       <formula>$G133&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
